--- a/ProcessedData/conf_rbf_SVM_audio_1.xlsx
+++ b/ProcessedData/conf_rbf_SVM_audio_1.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.055654259589195</v>
+        <v>0.009194862615337395</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.262770852201398</v>
+        <v>0.1397764690038049</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8411504940087476</v>
+        <v>0.8510286683808578</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6822231695643287</v>
+        <v>0.06446849868980056</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5474018558820852</v>
+        <v>0.417152312898909</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09401089364296544</v>
+        <v>0.5183791884112904</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3690673980090983</v>
+        <v>0.1725875804314223</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0763432311030805</v>
+        <v>0.5533154745544895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3212615432971918</v>
+        <v>0.2740969450140877</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1742706065662342</v>
+        <v>0.5064359464838279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.894921500929329</v>
+        <v>0.4623764327938842</v>
       </c>
       <c r="D5" t="n">
-        <v>1.208031502932315</v>
+        <v>0.03118762072228805</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5404890173260716</v>
+        <v>0.1152195079386903</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1989194184949519</v>
+        <v>0.6783874149200102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5912129537375932</v>
+        <v>0.2063930771412996</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0467384065289641</v>
+        <v>0.3011109094634157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09986321944623522</v>
+        <v>0.4419074974390383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2252348077097802</v>
+        <v>0.2569815930975462</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3023292636487346</v>
+        <v>0.2254101467923023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2618605423113827</v>
+        <v>0.6763259963663092</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9242485649881118</v>
+        <v>0.09826385684138837</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6504672215467669</v>
+        <v>0.07853895926895725</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4462339055014575</v>
+        <v>0.5078669129720561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1074357308108281</v>
+        <v>0.4135941277589868</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09362321414144026</v>
+        <v>0.4540251343397677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8326046930502293</v>
+        <v>0.5044731663873886</v>
       </c>
       <c r="D10" t="n">
-        <v>1.058188146783696</v>
+        <v>0.04150169927284362</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5431372393036801</v>
+        <v>0.09491660007103772</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3941469262012867</v>
+        <v>0.5639060305449162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2580112967938553</v>
+        <v>0.341177369384046</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6003342268582704</v>
+        <v>0.03309915622904635</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.8870296731817569</v>
+        <v>0.1770016029743882</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.696105540007358</v>
+        <v>0.7898992407965653</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2655505187661807</v>
+        <v>0.1490061953857102</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3099205483714649</v>
+        <v>0.4394334711099104</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05565892732221467</v>
+        <v>0.4115603335043793</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.00530221186557378</v>
+        <v>0.3936819384665249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7218676512296305</v>
+        <v>0.5614648960268261</v>
       </c>
       <c r="D14" t="n">
-        <v>1.122893569901533</v>
+        <v>0.04485316550664922</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3831132498065509</v>
+        <v>0.6378720822521713</v>
       </c>
       <c r="C15" t="n">
-        <v>1.145165269333163</v>
+        <v>0.3453267976297451</v>
       </c>
       <c r="D15" t="n">
-        <v>1.361419822325828</v>
+        <v>0.01680112011808355</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.04757648120101</v>
+        <v>0.02074698738794115</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.974285270927026</v>
+        <v>0.4323707107431395</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.09661204881289742</v>
+        <v>0.5468823018689194</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7022354131066967</v>
+        <v>0.09284196126518851</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1517899707875039</v>
+        <v>0.7345189989567761</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6944889816344142</v>
+        <v>0.1726390397780357</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.437023363978516</v>
+        <v>0.1573850425927394</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01903622591743148</v>
+        <v>0.6692681015241567</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6564319711392985</v>
+        <v>0.1733468558831041</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.9837708393954093</v>
+        <v>0.02769683877481635</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.841886282768143</v>
+        <v>0.3318141971768683</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2986218570794691</v>
+        <v>0.6404889640483153</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07872057875516225</v>
+        <v>0.2993943829928691</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04617104550879891</v>
+        <v>0.4154543379850276</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2818125762826044</v>
+        <v>0.2851512790221031</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5948597831127435</v>
+        <v>0.03518032927073367</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8694852569980178</v>
+        <v>0.1930919868765204</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6433718243909153</v>
+        <v>0.7717276838527459</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.5580344233972928</v>
+        <v>0.118689772103822</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1572277087004033</v>
+        <v>0.6612034721671616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5311605488617452</v>
+        <v>0.2201067557290162</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.077338111140212</v>
+        <v>0.01620742026452678</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.132409346017425</v>
+        <v>0.4511353961832829</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06361511732972958</v>
+        <v>0.5326571835521904</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.05830325485330456</v>
+        <v>0.2619458982969513</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.03644737541968301</v>
+        <v>0.4680490690447441</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3148157265417406</v>
+        <v>0.2700050326583047</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3522510453730566</v>
+        <v>0.122957354494251</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3762736792649684</v>
+        <v>0.4319393477743009</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003582525365516065</v>
+        <v>0.4451032977314477</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.7133934745523524</v>
+        <v>0.0505071005823712</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6931588353445044</v>
+        <v>0.5145764560084279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09781788574748157</v>
+        <v>0.4349164434092008</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9919128641211094</v>
+        <v>0.02801526401525426</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8327508390351703</v>
+        <v>0.2969377060523551</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3768289775551731</v>
+        <v>0.6750470299323902</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4956963601518586</v>
+        <v>0.07894035201344832</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5838104657182435</v>
+        <v>0.5184566541975731</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1478907254781906</v>
+        <v>0.4026029937889785</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2509639177341872</v>
+        <v>0.2422078388863486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1123358362325468</v>
+        <v>0.4875651060923086</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1765840666262237</v>
+        <v>0.2702270550213428</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2951019376837772</v>
+        <v>0.5809601546427408</v>
       </c>
       <c r="C30" t="n">
-        <v>1.020057604201072</v>
+        <v>0.3907127407301384</v>
       </c>
       <c r="D30" t="n">
-        <v>1.110862079197496</v>
+        <v>0.02832710462712053</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.284485182171129</v>
+        <v>0.005438411837030665</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.424520242142904</v>
+        <v>0.1567251508121849</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.7792128080945916</v>
+        <v>0.8378364373507842</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.3292449537733878</v>
+        <v>0.1311013617915412</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3523190034892416</v>
+        <v>0.5273205813038503</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2461085970760317</v>
+        <v>0.3415780569046084</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.6124505306924751</v>
+        <v>0.117215080519784</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02179594832151044</v>
+        <v>0.7366019664659734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7660183433878271</v>
+        <v>0.1461829530142419</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4709757772265325</v>
+        <v>0.1635618492164394</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1249866974767151</v>
+        <v>0.6890254306447999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6901452700318103</v>
+        <v>0.1474127201387607</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7172961214441452</v>
+        <v>0.4527795418515552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.006100717294018621</v>
+        <v>0.1943209924258338</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03000532540582534</v>
+        <v>0.3528994657226113</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8314847864956741</v>
+        <v>0.8357490919454921</v>
       </c>
       <c r="C36" t="n">
-        <v>1.161841602485411</v>
+        <v>0.1474059156043187</v>
       </c>
       <c r="D36" t="n">
-        <v>1.046632343730629</v>
+        <v>0.01684499245018959</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.6763054610522422</v>
+        <v>0.09492685981187166</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2176283373816397</v>
+        <v>0.6752669232847326</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5170582745143415</v>
+        <v>0.2298062169033958</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1485269873218206</v>
+        <v>0.3122843123747452</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5837612659295679</v>
+        <v>0.6326209422612219</v>
       </c>
       <c r="D38" t="n">
-        <v>1.098583941139279</v>
+        <v>0.05509474536403283</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1983790576667938</v>
+        <v>0.5007143460482515</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6165815110498591</v>
+        <v>0.4160898617330562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6675472597302364</v>
+        <v>0.08319579221869233</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1415944144822087</v>
+        <v>0.4912421180195418</v>
       </c>
       <c r="C40" t="n">
-        <v>1.005233886419462</v>
+        <v>0.4887836049566083</v>
       </c>
       <c r="D40" t="n">
-        <v>1.462450760326945</v>
+        <v>0.01997427702384982</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2273701765320103</v>
+        <v>0.2506093696182892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2066076005901614</v>
+        <v>0.5877506660227231</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5652718358608187</v>
+        <v>0.1616399643589878</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5644588573621357</v>
+        <v>0.7190857563067515</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9416605179538642</v>
+        <v>0.2456595360446976</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8660306497691043</v>
+        <v>0.03525470764855099</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1019338247960869</v>
+        <v>0.3483193565580648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06943574553515997</v>
+        <v>0.4447701159344334</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5150866027132058</v>
+        <v>0.206910527507502</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.05462082099935139</v>
+        <v>0.3568288619698114</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4973849030413511</v>
+        <v>0.5680788121434766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9410959519685722</v>
+        <v>0.07509232588671189</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4599162374997642</v>
+        <v>0.6765890947002163</v>
       </c>
       <c r="C45" t="n">
-        <v>1.10403770969063</v>
+        <v>0.3014666039080281</v>
       </c>
       <c r="D45" t="n">
-        <v>1.142985662361347</v>
+        <v>0.02194430139175565</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.2524023797370111</v>
+        <v>0.2017749664191897</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.06089003100355161</v>
+        <v>0.545701541462899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3850670055103757</v>
+        <v>0.2525234921179113</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3207587036105982</v>
+        <v>0.1652477772719308</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1640539052782224</v>
+        <v>0.6079092115662207</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5234205550092004</v>
+        <v>0.2268430111618486</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5032014076346295</v>
+        <v>0.6386736152627182</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4876431277068753</v>
+        <v>0.2686921320083147</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7720059618954029</v>
+        <v>0.09263425272896729</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1317342125406261</v>
+        <v>0.2617259704125023</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06010630117239724</v>
+        <v>0.5623192174752031</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6354894889907892</v>
+        <v>0.1759548121122947</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.5218984877331584</v>
+        <v>0.1107665013319016</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2800675063313627</v>
+        <v>0.6341589027848823</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4583887379301402</v>
+        <v>0.2550745958832162</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1606481602551971</v>
+        <v>0.2902671531131794</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3299286139726127</v>
+        <v>0.6174625051129938</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9416312194294609</v>
+        <v>0.09227034177382666</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.9331158711715138</v>
+        <v>0.03242852115000141</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.7906471218410893</v>
+        <v>0.4775698985130176</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002285276556351024</v>
+        <v>0.4900015803369808</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2654218758512693</v>
+        <v>0.5210172169343508</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4777626089801295</v>
+        <v>0.3773172477517503</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6695002589491833</v>
+        <v>0.1016655353138989</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1463224375053519</v>
+        <v>0.2861039416924672</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2438505948381795</v>
+        <v>0.5843139339616619</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7314125041417131</v>
+        <v>0.129582124345871</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1466464029060669</v>
+        <v>0.4149218988508135</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2592875800728656</v>
+        <v>0.4126262432919166</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4493835348283273</v>
+        <v>0.1724518578572697</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06981162115762152</v>
+        <v>0.4246423163657098</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5235945057555831</v>
+        <v>0.4965122827221009</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8665510755084256</v>
+        <v>0.07884540091218935</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2322280576801367</v>
+        <v>0.2491430002708211</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2159054237320965</v>
+        <v>0.6011959087231533</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6229189271083301</v>
+        <v>0.1496610910060256</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.4160635185593454</v>
+        <v>0.1168104160000652</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.3613356889264019</v>
+        <v>0.5055081304538722</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1601546444527643</v>
+        <v>0.3776814535460631</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2122886637630425</v>
+        <v>0.4842761717332001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4407960931316388</v>
+        <v>0.4015660274585202</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6082545758534166</v>
+        <v>0.1141578008082796</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2235568479369144</v>
+        <v>0.4988129857793423</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4769578572698385</v>
+        <v>0.3958846127129663</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6344578347913501</v>
+        <v>0.1053024015076915</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.8930332633234362</v>
+        <v>0.03455504571842899</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.7782297055680794</v>
+        <v>0.4190071822977138</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1120021967363065</v>
+        <v>0.546437771983857</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.01685449190485622</v>
+        <v>0.2467873637973594</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1195870165659294</v>
+        <v>0.3760407200217509</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02172923325461362</v>
+        <v>0.3771719161808899</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1607205189980997</v>
+        <v>0.4593763629445436</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4581313452574001</v>
+        <v>0.4212559930002222</v>
       </c>
       <c r="D63" t="n">
-        <v>0.537905363209507</v>
+        <v>0.1193676440552339</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.018285159057333</v>
+        <v>0.02389872810636412</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9094047835601338</v>
+        <v>0.4330444338342492</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.09276768059966256</v>
+        <v>0.5430568380593866</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.5732055280950211</v>
+        <v>0.005787755506584503</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.605771052178894</v>
+        <v>0.04932512000029001</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.379883935737724</v>
+        <v>0.9448871244931255</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8867863705751565</v>
+        <v>0.000634997775129431</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.977886205867875</v>
+        <v>0.004752929533610035</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.52055593661035</v>
+        <v>0.9946120726912607</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.179696379942631</v>
+        <v>0.005357613165906524</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.533582534607788</v>
+        <v>0.1746855529979982</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.7173861527227529</v>
+        <v>0.8199568338360953</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.109712051582027</v>
+        <v>0.01232506113632109</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.147676344910578</v>
+        <v>0.2156455127007899</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.5897851462930565</v>
+        <v>0.7720294261628888</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07747193187030155</v>
+        <v>0.09065436225786182</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.6914473029157755</v>
+        <v>0.1732991677383152</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.6151346049137282</v>
+        <v>0.736046470003823</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.4724401718263115</v>
+        <v>0.04899498533029278</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.7895189035913852</v>
+        <v>0.2366021325097221</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.5072189331036562</v>
+        <v>0.7144028821599853</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.357525797303074</v>
+        <v>0.003064226899113797</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.622295297901118</v>
+        <v>0.1126233598681121</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9610993471587096</v>
+        <v>0.8843124132327742</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.380583146773551</v>
+        <v>0.01259885804200842</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.048840601133576</v>
+        <v>0.3677641584176851</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2329970591116614</v>
+        <v>0.6196369835403065</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.6864159331620717</v>
+        <v>0.06455313493348495</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.5436668376228078</v>
+        <v>0.4441619234375277</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.03745610064834126</v>
+        <v>0.4912849416289873</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.611789416680954</v>
+        <v>0.05561418382631728</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.6708757732047126</v>
+        <v>0.3217673094005649</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.3005940908735165</v>
+        <v>0.6226185067731176</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.342127538037166</v>
+        <v>0.0003366564807671704</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.192621851842445</v>
+        <v>0.01052957724597918</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.136012817796277</v>
+        <v>0.9891337662732536</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.8595551937101694</v>
+        <v>0.04632821819594725</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.6380750283175296</v>
+        <v>0.4279648732069428</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.08656715085251632</v>
+        <v>0.52570690859711</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.5504967027002768</v>
+        <v>0.0764708614159581</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.5381317291989938</v>
+        <v>0.4214081673706048</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.06892739526652358</v>
+        <v>0.5021209712134368</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1666467754308533</v>
+        <v>0.2963996694534005</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4445680393589988</v>
+        <v>0.5885501154064897</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6316967688198813</v>
+        <v>0.1150502151401097</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.217830285783923</v>
+        <v>0.003673739811301198</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.586271424402752</v>
+        <v>0.1010725848245384</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.018138454072218</v>
+        <v>0.8952536753641603</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.6576780096654081</v>
+        <v>0.02902753824983513</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.9519737195293339</v>
+        <v>0.2169716102734258</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5749618535545992</v>
+        <v>0.7540008514767393</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3672946477814824</v>
+        <v>0.1035745791685958</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.4703042731752582</v>
+        <v>0.371405425278009</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.147967496550261</v>
+        <v>0.5250199955533951</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.4224252087442627</v>
+        <v>0.1319355924610089</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2768403583486212</v>
+        <v>0.4539761194123808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04151775548264924</v>
+        <v>0.4140882881266101</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.8331063357214722</v>
+        <v>0.02262017930490004</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.9639227204207252</v>
+        <v>0.1915996824292487</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.6531726580881024</v>
+        <v>0.7857801382658511</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.526984224810524</v>
+        <v>0.04388713174527199</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.8050570783322393</v>
+        <v>0.2156829281071179</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5707703000326229</v>
+        <v>0.7404299401476102</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.3919593091690435</v>
+        <v>0.08011124935138073</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.5959750832658692</v>
+        <v>0.3168758230133698</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.287393082594993</v>
+        <v>0.6030129276352491</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9461553328754396</v>
+        <v>0.01424757215970492</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.142596180052563</v>
+        <v>0.1531541048613792</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.784551999978314</v>
+        <v>0.8325983229789158</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.685847402541261</v>
+        <v>0.01713168344291138</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.106399810320468</v>
+        <v>0.1116523545491841</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.959689985548923</v>
+        <v>0.8712159620079042</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8495546786102087</v>
+        <v>0.01279178427658471</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.131005685315272</v>
+        <v>0.1009716951765971</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.015084551101557</v>
+        <v>0.8862365205468182</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.728606148357434</v>
+        <v>0.001311131670084273</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.873801280349283</v>
+        <v>0.122390917082437</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.9173830865768436</v>
+        <v>0.8762979512474787</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.544715725934258</v>
+        <v>0.0016185829591156</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.826444211086396</v>
+        <v>0.09941181097161528</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.027902619694121</v>
+        <v>0.898969606069269</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.036429503215549</v>
+        <v>0.001628131852230759</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.732957315842113</v>
+        <v>0.02414742626505618</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.736811940208004</v>
+        <v>0.974224441882713</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-2.09345268552895</v>
+        <v>2.360868313901943e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>-3.093710499861088</v>
+        <v>0.004619206063283347</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.528711252389086</v>
+        <v>0.9953571852535777</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.05836896639385236</v>
+        <v>0.4244724743792517</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6182016506759715</v>
+        <v>0.5096572580898705</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9077164832649581</v>
+        <v>0.06587026753087781</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.7543416924082086</v>
+        <v>0.0066811556088043</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.494044683462561</v>
+        <v>0.07528207591634654</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.168517326102569</v>
+        <v>0.9180367684748492</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.193750277014947</v>
+        <v>0.2767934021162022</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3473658501795291</v>
+        <v>0.6305246961063418</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9091931691750338</v>
+        <v>0.09268190177745594</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3767095572391715</v>
+        <v>0.2096313330577086</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6370898475382496</v>
+        <v>0.7644938126705392</v>
       </c>
       <c r="D96" t="n">
-        <v>1.608453859725015</v>
+        <v>0.02587485427175216</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2354933805339338</v>
+        <v>0.5522907732940429</v>
       </c>
       <c r="C97" t="n">
-        <v>1.142635506402443</v>
+        <v>0.4338274036567063</v>
       </c>
       <c r="D97" t="n">
-        <v>1.583987587913213</v>
+        <v>0.01388182304925083</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.03831001450764882</v>
+        <v>0.3863319066397028</v>
       </c>
       <c r="C98" t="n">
-        <v>1.054600932609447</v>
+        <v>0.5980679264722941</v>
       </c>
       <c r="D98" t="n">
-        <v>1.625434629342514</v>
+        <v>0.01560016688800326</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.6949239066888614</v>
+        <v>0.09996284965121284</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02988191477018698</v>
+        <v>0.8059960509239187</v>
       </c>
       <c r="D99" t="n">
-        <v>1.032365145810384</v>
+        <v>0.09404109942486873</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.3542929646573375</v>
+        <v>0.2129236725434439</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3874112362469624</v>
+        <v>0.7206066622392026</v>
       </c>
       <c r="D100" t="n">
-        <v>1.110044711893711</v>
+        <v>0.06646966521735342</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2147411692860383</v>
+        <v>0.5161836887350584</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6925297611889654</v>
+        <v>0.4155625201017727</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7514265486022886</v>
+        <v>0.06825379116316894</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.8064910901324301</v>
+        <v>0.04604132067215143</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.669334801211064</v>
+        <v>0.5639748141669453</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1914534739285745</v>
+        <v>0.3899838651609032</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.02586316788602028</v>
+        <v>0.3863477766537875</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8553674488083665</v>
+        <v>0.585649717734096</v>
       </c>
       <c r="D103" t="n">
-        <v>1.366260591948055</v>
+        <v>0.02800250561211634</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3978124049940371</v>
+        <v>0.6495782730945046</v>
       </c>
       <c r="C104" t="n">
-        <v>1.289789562247152</v>
+        <v>0.3391432772874763</v>
       </c>
       <c r="D104" t="n">
-        <v>1.519377926575159</v>
+        <v>0.01127844961801927</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4399137029190238</v>
+        <v>0.67470704013496</v>
       </c>
       <c r="C105" t="n">
-        <v>1.509460378271542</v>
+        <v>0.3169583320808651</v>
       </c>
       <c r="D105" t="n">
-        <v>1.538353365003044</v>
+        <v>0.008334627784175005</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03459050345987202</v>
+        <v>0.3866259358881168</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9242860081579216</v>
+        <v>0.5930924551859561</v>
       </c>
       <c r="D106" t="n">
-        <v>1.554713146897924</v>
+        <v>0.02028160892592696</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1475952898870693</v>
+        <v>0.3245055470574879</v>
       </c>
       <c r="C107" t="n">
-        <v>1.020286286069237</v>
+        <v>0.6598183771863628</v>
       </c>
       <c r="D107" t="n">
-        <v>1.654937180106386</v>
+        <v>0.01567607575614928</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.7791924438503818</v>
+        <v>0.09089475765748377</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6698654786425216</v>
+        <v>0.8989196808406504</v>
       </c>
       <c r="D108" t="n">
-        <v>2.121148757712899</v>
+        <v>0.01018556150186572</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3313985151011186</v>
+        <v>0.2344110133673126</v>
       </c>
       <c r="C109" t="n">
-        <v>1.071492632703568</v>
+        <v>0.754484337348708</v>
       </c>
       <c r="D109" t="n">
-        <v>1.849510573428832</v>
+        <v>0.01110464928397955</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1215185712191508</v>
+        <v>0.4807385412184454</v>
       </c>
       <c r="C110" t="n">
-        <v>1.239831876327415</v>
+        <v>0.5037816910203774</v>
       </c>
       <c r="D110" t="n">
-        <v>1.461560845957634</v>
+        <v>0.01547976776117719</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2609375060733848</v>
+        <v>0.5373476835353973</v>
       </c>
       <c r="C111" t="n">
-        <v>0.582534599615969</v>
+        <v>0.3972702310945629</v>
       </c>
       <c r="D111" t="n">
-        <v>0.971906223225367</v>
+        <v>0.06538208537003967</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.3382016572713317</v>
+        <v>0.1948906824072944</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04772673379255887</v>
+        <v>0.6062000749481166</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5137573646596343</v>
+        <v>0.198909242644589</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01759232847724468</v>
+        <v>0.4150225281923866</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9831696327994031</v>
+        <v>0.5653835738149865</v>
       </c>
       <c r="D113" t="n">
-        <v>1.51747742616267</v>
+        <v>0.01959389799262712</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.08938589307257894</v>
+        <v>0.352410981092748</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8312266703702995</v>
+        <v>0.6182482420317816</v>
       </c>
       <c r="D114" t="n">
-        <v>1.353545811020961</v>
+        <v>0.0293407768754704</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1061340974007597</v>
+        <v>0.3340105785315812</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5853355171377508</v>
+        <v>0.6075983078384348</v>
       </c>
       <c r="D115" t="n">
-        <v>1.051902574802807</v>
+        <v>0.05839111362998425</v>
       </c>
       <c r="E115" t="n">
         <v>3</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.159315543059383</v>
+        <v>0.02602907813586814</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.7754249812682439</v>
+        <v>0.4928306349225351</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02440645012285703</v>
+        <v>0.4811402869415966</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.410784085960534</v>
+        <v>0.001637116590563947</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.962334350482819</v>
+        <v>0.05131356723662799</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.364436400395552</v>
+        <v>0.9470493161728081</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.56945620854224</v>
+        <v>0.007291639004232315</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.225764591545399</v>
+        <v>0.4396750725432214</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.09428628706638775</v>
+        <v>0.5530332884525458</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.6391122434516111</v>
+        <v>0.05421492771648374</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.7225049155254049</v>
+        <v>0.5442626046119985</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1665604708369828</v>
+        <v>0.4015224676715179</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.309450482879787</v>
+        <v>0.02813489268899444</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.3954637355646604</v>
+        <v>0.8145494229529877</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7856050288668894</v>
+        <v>0.1573156843580177</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.530902504175577</v>
+        <v>0.01142003797333071</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.972362519189317</v>
+        <v>0.6046464468869626</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2291017252519189</v>
+        <v>0.3839335151397067</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.354854210734791</v>
+        <v>0.002298618472873264</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.691764099833662</v>
+        <v>0.07251097007293895</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.190947334517228</v>
+        <v>0.9251904114541879</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.110890924704198</v>
+        <v>0.01147910652148059</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.218655951389592</v>
+        <v>0.2734680324365366</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.4405220583374444</v>
+        <v>0.7150528610419828</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.2256785420823822</v>
+        <v>0.09466076038218499</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.6365483976547204</v>
+        <v>0.3570382974314794</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1597090696705527</v>
+        <v>0.5483009421863357</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.039681423677469</v>
+        <v>0.01111601561531946</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.264916352856147</v>
+        <v>0.2383318025575792</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.5284008824381842</v>
+        <v>0.7505521818271013</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6206408368636526</v>
+        <v>0.6930540966964815</v>
       </c>
       <c r="C126" t="n">
-        <v>0.574458748469042</v>
+        <v>0.2098096749705276</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4295190124064771</v>
+        <v>0.09713622833299078</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.190494125096142</v>
+        <v>0.03075512911638211</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.7284490144228066</v>
+        <v>0.3532632838677264</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.2528534178204723</v>
+        <v>0.6159815870158915</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1015566823855588</v>
+        <v>0.3596606118669373</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1255838939934655</v>
+        <v>0.3940184447575208</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2368060645138285</v>
+        <v>0.2463209433755419</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.02923271785410952</v>
+        <v>0.2969901729590828</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.00686522870759565</v>
+        <v>0.439690151774378</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3221789087595958</v>
+        <v>0.2633196752665392</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.213064185510139</v>
+        <v>0.01968978774715975</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.8675949271903953</v>
+        <v>0.6216871753395635</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2750033451967573</v>
+        <v>0.3586230369132768</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.5017968363364437</v>
+        <v>0.09909868588739874</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.391905857697153</v>
+        <v>0.6014332400497476</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3604489311830439</v>
+        <v>0.2994680740628534</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.06185083870231745</v>
+        <v>0.1855575030447369</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.3104101400594452</v>
+        <v>0.4122504209311835</v>
       </c>
       <c r="D132" t="n">
-        <v>0.08457975116583616</v>
+        <v>0.4021920760240796</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.4364399440808787</v>
+        <v>0.1923248243979289</v>
       </c>
       <c r="C133" t="n">
-        <v>1.512605032302574</v>
+        <v>0.8056537870146719</v>
       </c>
       <c r="D133" t="n">
-        <v>2.686460407591706</v>
+        <v>0.00202138858739875</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01219960990486391</v>
+        <v>0.2880850087529899</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.03595020872003762</v>
+        <v>0.4907965202307427</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5315456354336043</v>
+        <v>0.2211184710162674</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.035124269956304</v>
+        <v>0.0206236252133661</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.9785314896446231</v>
+        <v>0.3954504399242091</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1700554685660186</v>
+        <v>0.5839259348624249</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.285413993206097</v>
+        <v>0.01175556555217768</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.161768151029647</v>
+        <v>0.5133967865591547</v>
       </c>
       <c r="D136" t="n">
-        <v>0.05153578360333022</v>
+        <v>0.4748476478886677</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.569138371729272</v>
+        <v>0.007284031720261854</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.227280820132619</v>
+        <v>0.4136551262429496</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1449470693725591</v>
+        <v>0.5790608420367884</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.2735124377414498</v>
+        <v>0.1380699879808711</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.3642474725446754</v>
+        <v>0.5051603979668338</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2123328010083126</v>
+        <v>0.356769614052295</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.376791082618956</v>
+        <v>0.007165088163499622</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.386271810860591</v>
+        <v>0.4005465025095645</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1706852859496404</v>
+        <v>0.5922884093269358</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.7330465028287042</v>
+        <v>0.07426263191232321</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.3949257797698345</v>
+        <v>0.5977099359819542</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2943585987993628</v>
+        <v>0.3280274321057227</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.9264369229889601</v>
+        <v>0.01951338997952604</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.01258178737062</v>
+        <v>0.2202234189057542</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.5731271902486977</v>
+        <v>0.7602631911147194</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.9096558547832435</v>
+        <v>0.02928210480013366</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.8450289438182772</v>
+        <v>0.2348492667258324</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.5273581430706628</v>
+        <v>0.7358686284740339</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1657716706924456</v>
+        <v>0.4409447232320765</v>
       </c>
       <c r="C143" t="n">
-        <v>0.278611629344298</v>
+        <v>0.4397873793444803</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8668902776761271</v>
+        <v>0.1192678974234431</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.4269333254025062</v>
+        <v>0.1547528265922141</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.08116464111867505</v>
+        <v>0.6230600964200301</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4966733116986073</v>
+        <v>0.2221870769877558</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.204056395872063</v>
+        <v>0.1747687202707618</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2424540534737922</v>
+        <v>0.439085211615839</v>
       </c>
       <c r="D145" t="n">
-        <v>0.08761955068598476</v>
+        <v>0.3861460681133991</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.7880473995139899</v>
+        <v>0.02387180302888872</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.027767561480544</v>
+        <v>0.2837776092484092</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.4067673446678012</v>
+        <v>0.692350587722702</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.023834740614097</v>
+        <v>0.02468031946894743</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.8826508859672793</v>
+        <v>0.381334449275348</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1961275495855158</v>
+        <v>0.5939852312557042</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3873259288942895</v>
+        <v>0.1011101444348936</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.4671140048639295</v>
+        <v>0.3198129174745793</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.2757873300995859</v>
+        <v>0.579076938090527</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.05602392253597566</v>
+        <v>0.3466851551072883</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4152618842906015</v>
+        <v>0.5562758345427957</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8070488754414269</v>
+        <v>0.09703901034991629</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.249398082051518</v>
+        <v>0.0005000605618160031</v>
       </c>
       <c r="C150" t="n">
-        <v>-2.153754633391997</v>
+        <v>0.1591769895801638</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.7731505252289911</v>
+        <v>0.8403229498580201</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.7534569986393128</v>
+        <v>0.01999109614230292</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.085622517748276</v>
+        <v>0.2096428309542476</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.5986269972390069</v>
+        <v>0.7703660729034495</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.496587669216586</v>
+        <v>0.004193731569063562</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.480945655601672</v>
+        <v>0.1977835469091554</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.6459755658928042</v>
+        <v>0.7980227215217807</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.445430716489005</v>
+        <v>0.003923532677566192</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.533663199144484</v>
+        <v>0.1864507903055943</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.6807052584199361</v>
+        <v>0.8096256770168394</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.7427369860796537</v>
+        <v>0.02100348535207575</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.058427758129212</v>
+        <v>0.210714817795113</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.5952184462244529</v>
+        <v>0.768281696852811</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.3844587001591483</v>
+        <v>0.1259594666869554</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.3346249487680801</v>
+        <v>0.4729859752270024</v>
       </c>
       <c r="D155" t="n">
-        <v>0.09472480384112714</v>
+        <v>0.4010545580860422</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6875284107884786</v>
+        <v>0.04979848276321235</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.732266705243702</v>
+        <v>0.510021934552201</v>
       </c>
       <c r="D156" t="n">
-        <v>0.08921184810252281</v>
+        <v>0.4401795826845868</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.5632758292853216</v>
+        <v>0.04201356996584184</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.8144022077090078</v>
+        <v>0.2272098788479519</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.5397013516538848</v>
+        <v>0.7307765511862063</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.050235994928916</v>
+        <v>0.01829983953118366</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.009659178422452</v>
+        <v>0.2964535855655039</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.3827747602097072</v>
+        <v>0.6852465749033126</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.06270684993374209</v>
+        <v>0.03735456184807291</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.9582134728472333</v>
+        <v>0.05767555660767389</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.262710159375598</v>
+        <v>0.9049698815442533</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.06408340773981058</v>
+        <v>0.1403203479258531</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.4484560194300535</v>
+        <v>0.1356457194069633</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.8104326412453969</v>
+        <v>0.7240339326671834</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5957563224940495</v>
+        <v>0.3879206461238248</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.06052911885123469</v>
+        <v>0.1919733005743094</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1710553831926306</v>
+        <v>0.4201060533018658</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1540326141189278</v>
+        <v>0.2263375199537214</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.2689857774367816</v>
+        <v>0.2890124262339423</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1602391201236132</v>
+        <v>0.4846500538123363</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.409821387341699</v>
+        <v>0.005150913475379534</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.417824176515523</v>
+        <v>0.06772386560134282</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.222587948074608</v>
+        <v>0.9271252209232775</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.3594694510589184</v>
+        <v>0.1593690666663503</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.1552286852468392</v>
+        <v>0.5743593380525784</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3867739260112409</v>
+        <v>0.266271595281071</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.5060426375159798</v>
+        <v>0.09386627217394383</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.4402009863233609</v>
+        <v>0.4939104240223419</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1032226334919508</v>
+        <v>0.4122233038037141</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.09806074948305843</v>
+        <v>0.1383563773741859</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.4379434726641869</v>
+        <v>0.2848070660687073</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.3023689030069722</v>
+        <v>0.5768365565571069</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.4812088310490642</v>
+        <v>0.05938115884657276</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.6821350327291207</v>
+        <v>0.2335168997265052</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.5150958733023449</v>
+        <v>0.7071019414269221</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9617886875201312</v>
+        <v>0.003809172467075303</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.458294039779261</v>
+        <v>0.0287428889593641</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.654284357270916</v>
+        <v>0.9674479385735606</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.497726463830238</v>
+        <v>0.001833436325710375</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.826960665469627</v>
+        <v>0.04786850326358037</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.399038755741093</v>
+        <v>0.9502980604107094</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.1918432409715555</v>
+        <v>0.08415355829031186</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.6353452985965895</v>
+        <v>0.2109663097919978</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.5486259693271048</v>
+        <v>0.7048801319176906</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.2450436623269686</v>
+        <v>0.08333529197664419</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.6510550585513493</v>
+        <v>0.2778986299151279</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.3641796365035891</v>
+        <v>0.6387660781082279</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.7392024565288059</v>
+        <v>0.0133065434069764</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.210570730412214</v>
+        <v>0.1152845312837102</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.9432444114766435</v>
+        <v>0.8714089253093135</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.7019846261486199</v>
+        <v>0.01453546974236999</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.217070925922101</v>
+        <v>0.133209031110624</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.863311172986775</v>
+        <v>0.8522554991470058</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.4192533622529359</v>
+        <v>0.1002572646814521</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.4727082399417946</v>
+        <v>0.5015637225666644</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1389938959974505</v>
+        <v>0.3981790127518832</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.209240685132263</v>
+        <v>0.0006878768773314307</v>
       </c>
       <c r="C175" t="n">
-        <v>-2.042948763407465</v>
+        <v>0.0215675704534913</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.790885746059771</v>
+        <v>0.9777445526691771</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3655089516149795</v>
+        <v>0.3084666957813728</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.1404030756304018</v>
+        <v>0.1438709463743872</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.6873947184422683</v>
+        <v>0.54766235784424</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1519900253924883</v>
+        <v>0.4472706903951403</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3856828117045275</v>
+        <v>0.4401017065453069</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7188440717749091</v>
+        <v>0.1126276030595526</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7345413085270943</v>
+        <v>0.7660037376020676</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7253020842647266</v>
+        <v>0.1751460727871604</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6521631179668856</v>
+        <v>0.05885018961077157</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.9354685451996877</v>
+        <v>0.01674751857267426</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.068833829377737</v>
+        <v>0.192812101957293</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.654360383029276</v>
+        <v>0.7904403794700328</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.8820608104274802</v>
+        <v>0.04036266234360238</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.6941520755090231</v>
+        <v>0.4978565923190894</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04954669164199921</v>
+        <v>0.4617807453373081</v>
       </c>
       <c r="E180" t="n">
         <v>6</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.060026703355538</v>
+        <v>0.009928324075019181</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.205116947365809</v>
+        <v>0.09235924308194672</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.061591455543861</v>
+        <v>0.897712432843034</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.899485307819423</v>
+        <v>0.009771080510954478</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.268428056035716</v>
+        <v>0.110447969687025</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.9660988806379124</v>
+        <v>0.8797809498020204</v>
       </c>
       <c r="E182" t="n">
         <v>6</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.5842501306746376</v>
+        <v>0.04422370140950949</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.8015222456694027</v>
+        <v>0.2808828823127736</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.3997013220465466</v>
+        <v>0.674893416277717</v>
       </c>
       <c r="E183" t="n">
         <v>6</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-2.178227644202044</v>
+        <v>0.0002128627088372655</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.446818444749026</v>
+        <v>0.06545551300353838</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.243950851856738</v>
+        <v>0.9343316242876243</v>
       </c>
       <c r="E184" t="n">
         <v>6</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-2.254039023553735</v>
+        <v>0.0005647486219106842</v>
       </c>
       <c r="C185" t="n">
-        <v>-2.05384241602077</v>
+        <v>0.1242687284971725</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.909561290448815</v>
+        <v>0.8751665228809168</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.7665805955546338</v>
+        <v>0.01798865668948397</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.07415522843479</v>
+        <v>0.1386769301703798</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.84158896224888</v>
+        <v>0.8433344131401359</v>
       </c>
       <c r="E186" t="n">
         <v>6</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.161376259874932</v>
+        <v>0.005736719933724297</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.417384767117994</v>
+        <v>0.1184961207343029</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.9326214544740815</v>
+        <v>0.8757671593319727</v>
       </c>
       <c r="E187" t="n">
         <v>6</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.3885802305728751</v>
+        <v>0.06242121285235989</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.6823346903310743</v>
+        <v>0.1864793179334935</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.6531048524267128</v>
+        <v>0.7510994692141468</v>
       </c>
       <c r="E188" t="n">
         <v>6</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.3755784322607857</v>
+        <v>0.08612366173644975</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.5566717355038684</v>
+        <v>0.2880866990418339</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.3560052364721423</v>
+        <v>0.6257896392217162</v>
       </c>
       <c r="E189" t="n">
         <v>6</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1356645058975611</v>
+        <v>0.1468052889712511</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.4781792329586232</v>
+        <v>0.2082362615697364</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.464471362212363</v>
+        <v>0.6449584494590127</v>
       </c>
       <c r="E190" t="n">
         <v>6</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.5334940183526035</v>
+        <v>0.01225127375690768</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.267731445203508</v>
+        <v>0.06778157650816023</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.219546635869475</v>
+        <v>0.9199671497349318</v>
       </c>
       <c r="E191" t="n">
         <v>6</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.083026856103904</v>
+        <v>0.008319681438439384</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.326135056540408</v>
+        <v>0.1669538537078691</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.7417863205362699</v>
+        <v>0.8247264648536916</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.6242462748511789</v>
+        <v>0.02522040821312366</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.016138827346793</v>
+        <v>0.1779299076527505</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.6947109948776246</v>
+        <v>0.796849684134126</v>
       </c>
       <c r="E193" t="n">
         <v>6</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.712904695519943</v>
+        <v>0.001001563747944194</v>
       </c>
       <c r="C194" t="n">
-        <v>-2.218987412097305</v>
+        <v>0.04299669173997065</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.452803313277186</v>
+        <v>0.9560017445120853</v>
       </c>
       <c r="E194" t="n">
         <v>6</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.02713895954553</v>
+        <v>0.01696561845793977</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.066752267347098</v>
+        <v>0.3047482575327005</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.3644171128123493</v>
+        <v>0.6782861240093597</v>
       </c>
       <c r="E195" t="n">
         <v>6</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3768920499274392</v>
+        <v>0.08873028836360083</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.5337494314383087</v>
+        <v>0.2537493117339432</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.4480240480882632</v>
+        <v>0.6575203999024557</v>
       </c>
       <c r="E196" t="n">
         <v>6</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.032941178283911</v>
+        <v>0.006764151864382239</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.4412192693011</v>
+        <v>0.1043533230789694</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.9969853799093223</v>
+        <v>0.8888825250566483</v>
       </c>
       <c r="E197" t="n">
         <v>6</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1869162318684848</v>
+        <v>0.06590646260228337</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.7485791683026684</v>
+        <v>0.1814602510930285</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.6459730607056421</v>
+        <v>0.7526332863046883</v>
       </c>
       <c r="E198" t="n">
         <v>6</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.012515397236948</v>
+        <v>0.8965464496402972</v>
       </c>
       <c r="C199" t="n">
-        <v>1.631433912277104</v>
+        <v>0.1007005730375532</v>
       </c>
       <c r="D199" t="n">
-        <v>1.927078496678714</v>
+        <v>0.002752977322149829</v>
       </c>
       <c r="E199" t="n">
         <v>6</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.6300225928176862</v>
+        <v>0.02064642121540684</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.038750491951503</v>
+        <v>0.1069742569096155</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.9821723588599941</v>
+        <v>0.8723793218749779</v>
       </c>
       <c r="E200" t="n">
         <v>6</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.700275761956353</v>
+        <v>0.04172774595713555</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.7683271844403514</v>
+        <v>0.3245769366929616</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.302737663611481</v>
+        <v>0.6336953173499027</v>
       </c>
       <c r="E201" t="n">
         <v>6</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.423357712161239</v>
+        <v>0.00448122645523205</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.466920749966817</v>
+        <v>0.174145258721857</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.7198964162499039</v>
+        <v>0.8213735148229111</v>
       </c>
       <c r="E202" t="n">
         <v>6</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.6483238915967083</v>
+        <v>0.02971201942515491</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.889077733496918</v>
+        <v>0.1274463376683315</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.8869474237367362</v>
+        <v>0.8428416429065138</v>
       </c>
       <c r="E203" t="n">
         <v>6</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1315069156094305</v>
+        <v>0.4783837080879427</v>
       </c>
       <c r="C204" t="n">
-        <v>0.8279084995667325</v>
+        <v>0.485953968719429</v>
       </c>
       <c r="D204" t="n">
-        <v>1.181752486172352</v>
+        <v>0.03566232319262826</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.9464867666026086</v>
+        <v>0.05354435062669915</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.4365952405542679</v>
+        <v>0.6340324452309068</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3431671904244385</v>
+        <v>0.3124232041423941</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.5968836490645847</v>
+        <v>0.0925916863712464</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.3914750597374728</v>
+        <v>0.4517609460729511</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.002254555847115425</v>
+        <v>0.4556473675558025</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.5949052719870925</v>
+        <v>0.1231804003177215</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.1969777615275625</v>
+        <v>0.4944674290645464</v>
       </c>
       <c r="D207" t="n">
-        <v>0.09408009645943288</v>
+        <v>0.3823521706177324</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.6798062322616024</v>
+        <v>0.06075756046032213</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.5833869713842283</v>
+        <v>0.5055763759015206</v>
       </c>
       <c r="D208" t="n">
-        <v>0.08849266224911007</v>
+        <v>0.4336660636381572</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.1158653772114396</v>
+        <v>0.3238027984977915</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5115424768093113</v>
+        <v>0.5889931121286451</v>
       </c>
       <c r="D209" t="n">
-        <v>0.7942229964461466</v>
+        <v>0.08720408937356314</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.2305495819551643</v>
+        <v>0.251681514276694</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1902036801633649</v>
+        <v>0.5478510363964253</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3892849936875254</v>
+        <v>0.2004674493268808</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.2238493866626262</v>
+        <v>0.2697296941439103</v>
       </c>
       <c r="C211" t="n">
-        <v>0.4060399135189818</v>
+        <v>0.6046659918466927</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5983394250432776</v>
+        <v>0.1256043140093971</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.1143585184913481</v>
+        <v>0.3226391807870178</v>
       </c>
       <c r="C212" t="n">
-        <v>0.4802558995286155</v>
+        <v>0.5838236051613656</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7663518756903509</v>
+        <v>0.09353721405161652</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6507364700928756</v>
+        <v>0.6971483709838807</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5595930630017285</v>
+        <v>0.1926298980509722</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2729606824051898</v>
+        <v>0.1102217309651473</v>
       </c>
       <c r="E213" t="n">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.50181343894567</v>
+        <v>0.5693993390010411</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3198203192955027</v>
+        <v>0.2375515219749935</v>
       </c>
       <c r="D214" t="n">
-        <v>0.1509810988049125</v>
+        <v>0.1930491390239651</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.2837159033567692</v>
+        <v>0.1431064180876826</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.3270916793820213</v>
+        <v>0.4729383702456814</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1318110447287696</v>
+        <v>0.3839552116666361</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.4370400246086584</v>
+        <v>0.6221707412812917</v>
       </c>
       <c r="C216" t="n">
-        <v>0.6215215919609427</v>
+        <v>0.2731035650128666</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3012663920140944</v>
+        <v>0.1047256937058416</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.1873169560141624</v>
+        <v>0.1314435129289469</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.4233839749006016</v>
+        <v>0.3001430796421575</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2851044029412068</v>
+        <v>0.5684134074288955</v>
       </c>
       <c r="E217" t="n">
         <v>8</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4478332387345555</v>
+        <v>0.6534494086113271</v>
       </c>
       <c r="C218" t="n">
-        <v>0.8074049802738024</v>
+        <v>0.2986461466754718</v>
       </c>
       <c r="D218" t="n">
-        <v>0.839618197371385</v>
+        <v>0.04790444471320138</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7648614204256413</v>
+        <v>0.8154519014632973</v>
       </c>
       <c r="C219" t="n">
-        <v>1.398222915863003</v>
+        <v>0.1680240851701165</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8547022619687217</v>
+        <v>0.01652401336658629</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.9467569697415522</v>
+        <v>0.8559809256405078</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9806059158149345</v>
+        <v>0.1136268911858176</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6816434138710084</v>
+        <v>0.0303921831736748</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.01580378024512663</v>
+        <v>0.2964589917069171</v>
       </c>
       <c r="C221" t="n">
-        <v>0.03294231436035555</v>
+        <v>0.3936344988654193</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08864195677973996</v>
+        <v>0.3099065094276637</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1966300891985734</v>
+        <v>0.5037758936393919</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6656476515935459</v>
+        <v>0.4221930795370905</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7154203583206158</v>
+        <v>0.07403102682351757</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5558601871662981</v>
+        <v>0.7073334765793646</v>
       </c>
       <c r="C223" t="n">
-        <v>0.8573505909951826</v>
+        <v>0.2451630322562253</v>
       </c>
       <c r="D223" t="n">
-        <v>0.7058076675067899</v>
+        <v>0.04750349116440998</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4696384454047214</v>
+        <v>0.6782117140414432</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9548479338437523</v>
+        <v>0.2957920083212324</v>
       </c>
       <c r="D224" t="n">
-        <v>1.203649583397584</v>
+        <v>0.02599627763732449</v>
       </c>
       <c r="E224" t="n">
         <v>8</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.7085817404822971</v>
+        <v>0.7783924475798538</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9716639078341565</v>
+        <v>0.1833851027978853</v>
       </c>
       <c r="D225" t="n">
-        <v>0.6294688137072848</v>
+        <v>0.03822244962226078</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2848048648643365</v>
+        <v>0.5179624601587179</v>
       </c>
       <c r="C226" t="n">
-        <v>0.4480845113211138</v>
+        <v>0.3392643409788048</v>
       </c>
       <c r="D226" t="n">
-        <v>0.3217629646624907</v>
+        <v>0.1427731988624773</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0809645831919662</v>
+        <v>0.4324647845310438</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5640036875495873</v>
+        <v>0.479925657569694</v>
       </c>
       <c r="D227" t="n">
-        <v>0.712551103704818</v>
+        <v>0.08760955789926232</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.8311059846691317</v>
+        <v>0.8220319358786288</v>
       </c>
       <c r="C228" t="n">
-        <v>0.983165229994001</v>
+        <v>0.1436141643715885</v>
       </c>
       <c r="D228" t="n">
-        <v>0.6208826675861963</v>
+        <v>0.03435389974978279</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.7410901072436454</v>
+        <v>0.7986240246806683</v>
       </c>
       <c r="C229" t="n">
-        <v>1.049423312788449</v>
+        <v>0.1760606090021438</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8982532782603898</v>
+        <v>0.0253153663171878</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.03422699484061786</v>
+        <v>0.3540831943004356</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1730211696437045</v>
+        <v>0.3802540013355779</v>
       </c>
       <c r="D230" t="n">
-        <v>0.07373505253418244</v>
+        <v>0.2656628043639861</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.7267491596194683</v>
+        <v>0.7667579399448637</v>
       </c>
       <c r="C231" t="n">
-        <v>0.7558279526140275</v>
+        <v>0.1773241605110909</v>
       </c>
       <c r="D231" t="n">
-        <v>0.6372583904129238</v>
+        <v>0.05591789954404535</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.4357683590326312</v>
+        <v>0.6367291162336229</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7400277281670788</v>
+        <v>0.2902065667884899</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5157784546122912</v>
+        <v>0.07306431697788687</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.2906366580754801</v>
+        <v>0.5793333850792479</v>
       </c>
       <c r="C233" t="n">
-        <v>1.06990789327341</v>
+        <v>0.3940412206655137</v>
       </c>
       <c r="D233" t="n">
-        <v>1.117190965091307</v>
+        <v>0.0266253942552384</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4098107362779994</v>
+        <v>0.6282405533372574</v>
       </c>
       <c r="C234" t="n">
-        <v>0.7689503202567358</v>
+        <v>0.3117700551413837</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6903339051323087</v>
+        <v>0.05998939152135876</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.008242986327995</v>
+        <v>0.8720612544130919</v>
       </c>
       <c r="C235" t="n">
-        <v>1.020420939150427</v>
+        <v>0.09864831985625051</v>
       </c>
       <c r="D235" t="n">
-        <v>0.5735882212588439</v>
+        <v>0.02929042573065751</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5801749190604776</v>
+        <v>0.7092033566023106</v>
       </c>
       <c r="C236" t="n">
-        <v>0.7681709579586176</v>
+        <v>0.2314871472309188</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6122306712851022</v>
+        <v>0.05930949616677055</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.189422094236709</v>
+        <v>0.2158659873852745</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.09008027050008072</v>
+        <v>0.4244749070787817</v>
       </c>
       <c r="D237" t="n">
-        <v>0.05644758277079409</v>
+        <v>0.3596591055359439</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1178186436807019</v>
+        <v>0.2391380057364875</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.2187716029838633</v>
+        <v>0.3033126572314553</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.130153008983373</v>
+        <v>0.4575493370320573</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.2876902929727786</v>
+        <v>0.5544505982133588</v>
       </c>
       <c r="C239" t="n">
-        <v>0.66803285050348</v>
+        <v>0.3717490737245034</v>
       </c>
       <c r="D239" t="n">
-        <v>0.6849041581801275</v>
+        <v>0.07380032806213775</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.3065737785210464</v>
+        <v>0.2118717645761694</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1157148551329221</v>
+        <v>0.6170126666933574</v>
       </c>
       <c r="D240" t="n">
-        <v>0.5902137885167824</v>
+        <v>0.1711155687304733</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.268034947431294</v>
+        <v>0.02761981363727073</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.3690442066138211</v>
+        <v>0.8546390740339982</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9487186043583862</v>
+        <v>0.1177411123287311</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5461671508481819</v>
+        <v>0.1507723699500935</v>
       </c>
       <c r="C242" t="n">
-        <v>0.724683804837668</v>
+        <v>0.8164137056461513</v>
       </c>
       <c r="D242" t="n">
-        <v>1.331997563772206</v>
+        <v>0.03281392440375513</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.164980809261441</v>
+        <v>0.03468848498450886</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.4724774267613718</v>
+        <v>0.7450103129360696</v>
       </c>
       <c r="D243" t="n">
-        <v>0.5875981496915306</v>
+        <v>0.2203012020794218</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-1.088965051604523</v>
+        <v>0.030275952969449</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.7692311033461146</v>
+        <v>0.307178259450916</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3532627597809433</v>
+        <v>0.662545787579635</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.186672442116082</v>
+        <v>0.007665157327916109</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.357128416148469</v>
+        <v>0.2179095772406655</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.585810969746</v>
+        <v>0.7744252654314183</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-2.005517468434041</v>
+        <v>0.002153062111637852</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.610332992244266</v>
+        <v>0.2369075181282699</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.5379874570809516</v>
+        <v>0.7609394197600923</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.8160889716208052</v>
+        <v>0.005644020419653954</v>
       </c>
       <c r="C247" t="n">
-        <v>-1.441999916393953</v>
+        <v>0.04651968331892735</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.413564587135469</v>
+        <v>0.9478362962614187</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.312041096076347</v>
+        <v>0.02888430762940338</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.3493636280133778</v>
+        <v>0.8305791396125557</v>
       </c>
       <c r="D248" t="n">
-        <v>0.8462059937456148</v>
+        <v>0.1405365527580409</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.376023420857981</v>
+        <v>0.03231674866432318</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.1270931120391616</v>
+        <v>0.8678962924518822</v>
       </c>
       <c r="D249" t="n">
-        <v>1.00106058472321</v>
+        <v>0.09978695888379459</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.344670100194497</v>
+        <v>0.00296552856026799</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.589709337470566</v>
+        <v>0.0774171283523165</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.157192610477099</v>
+        <v>0.9196173430874154</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.841466209471354</v>
+        <v>0.004180204431499804</v>
       </c>
       <c r="C251" t="n">
-        <v>-1.382832460880876</v>
+        <v>0.3079406394952061</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.3661323883773836</v>
+        <v>0.687879156073294</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.205095313145383</v>
+        <v>0.03698681836005781</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.4405145812973068</v>
+        <v>0.7044413944717733</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4809111336804303</v>
+        <v>0.2585717871681685</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.8636236218404511</v>
+        <v>0.08552996719444018</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.06843906732943528</v>
+        <v>0.7209070477033768</v>
       </c>
       <c r="D253" t="n">
-        <v>0.5865652115399327</v>
+        <v>0.1935629851021832</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.4555508082194896</v>
+        <v>0.1442592536580978</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.1128128820585339</v>
+        <v>0.6293373694427951</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4955526987242841</v>
+        <v>0.2264033768991074</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.55777108014343</v>
+        <v>0.01082390599978265</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.9334014970107056</v>
+        <v>0.7032663060892183</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4402667168335357</v>
+        <v>0.2859097879109991</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.090554038869305</v>
+        <v>0.04682726504691145</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.3700222489329541</v>
+        <v>0.7084359092490967</v>
       </c>
       <c r="D256" t="n">
-        <v>0.5073527925699308</v>
+        <v>0.2447368257039919</v>
       </c>
       <c r="E256" t="n">
         <v>9</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.7965650793377156</v>
+        <v>0.08993577703695478</v>
       </c>
       <c r="C257" t="n">
-        <v>0.4319137359047296</v>
+        <v>0.8589074979043565</v>
       </c>
       <c r="D257" t="n">
-        <v>1.185185573044685</v>
+        <v>0.05115672505868883</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.7492280007663842</v>
+        <v>0.09882121940249909</v>
       </c>
       <c r="C258" t="n">
-        <v>0.4448551296355141</v>
+        <v>0.8522413988026919</v>
       </c>
       <c r="D258" t="n">
-        <v>1.210912617953718</v>
+        <v>0.04893738179480884</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.326143267923958</v>
+        <v>0.01669852019734216</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.801069737441906</v>
+        <v>0.7524628414272807</v>
       </c>
       <c r="D259" t="n">
-        <v>0.5740852251277532</v>
+        <v>0.2308386383753772</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.9565805261137162</v>
+        <v>0.06703886656460316</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1478583797790243</v>
+        <v>0.8501201773458121</v>
       </c>
       <c r="D260" t="n">
-        <v>1.025212649855406</v>
+        <v>0.08284095608958465</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.9905260670202741</v>
+        <v>0.06393077585583651</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1547452943904666</v>
+        <v>0.8518533942114528</v>
       </c>
       <c r="D261" t="n">
-        <v>1.009534224764812</v>
+        <v>0.08421582993271062</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.7144993814783808</v>
+        <v>0.1055053128479473</v>
       </c>
       <c r="C262" t="n">
-        <v>0.6822791404482877</v>
+        <v>0.8729407606663383</v>
       </c>
       <c r="D262" t="n">
-        <v>1.5986398999095</v>
+        <v>0.02155392648571433</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-2.210438323310674</v>
+        <v>0.001482539766553384</v>
       </c>
       <c r="C263" t="n">
-        <v>-1.734357368372712</v>
+        <v>0.4069209360482899</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.1627832947672893</v>
+        <v>0.5915965241851563</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.7702667092697814</v>
+        <v>0.08472494457071673</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.3103675603899199</v>
+        <v>0.5459476273173501</v>
       </c>
       <c r="D264" t="n">
-        <v>0.1789643437400097</v>
+        <v>0.3693274281119331</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.8443730792163583</v>
+        <v>0.02571732668586542</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.9315194547993848</v>
+        <v>0.2366705625297356</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.5227738156983018</v>
+        <v>0.7376121107843989</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.4285719127026274</v>
+        <v>0.03149427049806242</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.9088593894708332</v>
+        <v>0.08592223463774458</v>
       </c>
       <c r="D266" t="n">
-        <v>-1.099480002976207</v>
+        <v>0.882583494864193</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.693763308815951</v>
+        <v>0.001283163926337338</v>
       </c>
       <c r="C267" t="n">
-        <v>-1.949393845165758</v>
+        <v>0.1405384656906508</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8420378762853596</v>
+        <v>0.8581783703830121</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.780230759287993</v>
+        <v>0.0007631897054916107</v>
       </c>
       <c r="C268" t="n">
-        <v>-1.989688900544351</v>
+        <v>0.05662875608032786</v>
       </c>
       <c r="D268" t="n">
-        <v>-1.316710039181051</v>
+        <v>0.9426080542141807</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.9886316538041106</v>
+        <v>0.05599043133155186</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2119329289677829</v>
+        <v>0.7887262382140819</v>
       </c>
       <c r="D269" t="n">
-        <v>0.7692602737120717</v>
+        <v>0.1552833304543662</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.7184785061974613</v>
+        <v>0.02884207925775191</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.9292563586954963</v>
+        <v>0.2576324364832077</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.4662572331740323</v>
+        <v>0.7135254842590403</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.8540734362148802</v>
+        <v>0.04118031518484146</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.6987719554582263</v>
+        <v>0.5992542089921631</v>
       </c>
       <c r="D271" t="n">
-        <v>0.2589072943494319</v>
+        <v>0.3595654758229955</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.6698903426273878</v>
+        <v>0.1161314590778958</v>
       </c>
       <c r="C272" t="n">
-        <v>0.4402275127897475</v>
+        <v>0.8342353841777925</v>
       </c>
       <c r="D272" t="n">
-        <v>1.215351466084987</v>
+        <v>0.04963315674431139</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.626042471658342</v>
+        <v>0.0377978456691307</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.8646445892334349</v>
+        <v>0.2799590887683934</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.4058924738141224</v>
+        <v>0.6822430655624758</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
